--- a/матрица новая.xlsx
+++ b/матрица новая.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>Кнопка [Сохранить]</t>
   </si>
@@ -415,15 +415,12 @@
   <si>
     <t>В целевом варианте дизейбл этого боля если: !(new ИЛИ active) ИЛИ badregion ИЛИ badblock ИЛИ Роль = Работник подразделения</t>
   </si>
-  <si>
-    <t>Кнопка [Принять в работу]</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +431,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -591,23 +596,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -627,20 +641,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,13 +670,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -707,13 +712,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -749,13 +754,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -791,13 +796,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1129,7 +1134,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1166,7 +1171,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1203,7 +1208,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1240,7 +1245,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1859,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1876,11 +1881,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1889,13 +1894,13 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1904,13 +1909,13 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1919,13 +1924,13 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1934,13 +1939,13 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1949,13 +1954,13 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1964,13 +1969,13 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1979,13 +1984,13 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1994,7 +1999,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2009,7 +2014,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -2024,7 +2029,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -2039,7 +2044,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2074,7 +2079,7 @@
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2082,180 +2087,176 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="20"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="8"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="8"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="C23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="20"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="8"/>
+      <c r="C24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="20"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="8"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2263,12 +2264,12 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2276,12 +2277,12 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2289,12 +2290,12 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2302,27 +2303,31 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="8" t="s">
-        <v>52</v>
-      </c>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="20"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2330,33 +2335,33 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="8"/>
+      <c r="C31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="20"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="8"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="20"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2364,46 +2369,46 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="8"/>
+      <c r="A33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="8"/>
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="20"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="8"/>
+      <c r="C35" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="20"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2411,46 +2416,46 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="8"/>
+      <c r="A36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="8"/>
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="20"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="8"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="20"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2458,16 +2463,14 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="8"/>
+      <c r="A39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2475,14 +2478,16 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="A40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="20"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2490,16 +2495,14 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="8"/>
+      <c r="A41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2507,14 +2510,16 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="A42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="20"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2522,16 +2527,16 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="8"/>
+      <c r="C43" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="20"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2539,16 +2544,10 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="8"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2874,42 +2873,31 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
